--- a/data/wb sample.xlsx
+++ b/data/wb sample.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\receiving_shipping_tracker\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACC248-DF21-4E33-B448-F59E6A445594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2175" yWindow="1140" windowWidth="21600" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
   <si>
     <t>XXEEG_INTERNAL_REQ_SHIPMENT</t>
   </si>
@@ -254,41 +263,48 @@
   </si>
   <si>
     <t>124,1121</t>
+  </si>
+  <si>
+    <t>P123.1B.XX.RM.</t>
+  </si>
+  <si>
+    <t>P123.2B.XX.RM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d-mmm-yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -298,7 +314,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -308,7 +324,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -316,68 +338,62 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -567,33 +583,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
-    <col customWidth="1" min="2" max="2" width="14.88"/>
-    <col customWidth="1" min="3" max="3" width="36.88"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,9 +678,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -666,19 +689,19 @@
         <v>22</v>
       </c>
       <c r="D3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F3" s="6">
-        <v>495859.0</v>
+        <v>495859</v>
       </c>
       <c r="G3" s="7">
-        <v>7654304.0</v>
+        <v>7654304</v>
       </c>
       <c r="H3" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>23</v>
@@ -699,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>29</v>
@@ -718,9 +741,9 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
@@ -729,19 +752,19 @@
         <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F4" s="6">
-        <v>491845.0</v>
+        <v>491845</v>
       </c>
       <c r="G4" s="7">
-        <v>7654331.0</v>
+        <v>7654331</v>
       </c>
       <c r="H4" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>23</v>
@@ -762,7 +785,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>34</v>
@@ -781,9 +804,9 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
@@ -792,19 +815,19 @@
         <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F5" s="6">
-        <v>496616.0</v>
+        <v>496616</v>
       </c>
       <c r="G5" s="7">
-        <v>7654387.0</v>
+        <v>7654387</v>
       </c>
       <c r="H5" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>23</v>
@@ -825,7 +848,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>34</v>
@@ -844,9 +867,9 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -855,19 +878,19 @@
         <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F6" s="6">
-        <v>496616.0</v>
+        <v>496616</v>
       </c>
       <c r="G6" s="7">
-        <v>7654387.0</v>
+        <v>7654387</v>
       </c>
       <c r="H6" s="7">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>23</v>
@@ -888,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>37</v>
@@ -907,9 +930,9 @@
       </c>
       <c r="U6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>38</v>
@@ -918,19 +941,19 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F7" s="6">
-        <v>496616.0</v>
+        <v>496616</v>
       </c>
       <c r="G7" s="7">
-        <v>7654387.0</v>
+        <v>7654387</v>
       </c>
       <c r="H7" s="7">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
@@ -951,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="O7" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>40</v>
@@ -970,9 +993,9 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
@@ -981,19 +1004,19 @@
         <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F8" s="6">
-        <v>496704.0</v>
+        <v>496704</v>
       </c>
       <c r="G8" s="7">
-        <v>7654323.0</v>
+        <v>7654323</v>
       </c>
       <c r="H8" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -1014,7 +1037,7 @@
         <v>28</v>
       </c>
       <c r="O8" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>45</v>
@@ -1033,9 +1056,9 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>47</v>
@@ -1044,19 +1067,19 @@
         <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F9" s="6">
-        <v>497084.0</v>
+        <v>497084</v>
       </c>
       <c r="G9" s="7">
-        <v>7654324.0</v>
+        <v>7654324</v>
       </c>
       <c r="H9" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>23</v>
@@ -1077,7 +1100,7 @@
         <v>28</v>
       </c>
       <c r="O9" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>49</v>
@@ -1096,9 +1119,9 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>51</v>
@@ -1107,19 +1130,19 @@
         <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F10" s="6">
-        <v>497084.0</v>
+        <v>497084</v>
       </c>
       <c r="G10" s="7">
-        <v>7654324.0</v>
+        <v>7654324</v>
       </c>
       <c r="H10" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>23</v>
@@ -1140,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>53</v>
@@ -1159,9 +1182,9 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>55</v>
@@ -1170,19 +1193,19 @@
         <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F11" s="6">
-        <v>497084.0</v>
+        <v>497084</v>
       </c>
       <c r="G11" s="7">
-        <v>7654324.0</v>
+        <v>7654324</v>
       </c>
       <c r="H11" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>23</v>
@@ -1203,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="O11" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>57</v>
@@ -1222,30 +1245,30 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>9.0</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F12" s="6">
-        <v>497084.0</v>
+        <v>497084</v>
       </c>
       <c r="G12" s="7">
-        <v>7654324.0</v>
+        <v>7654324</v>
       </c>
       <c r="H12" s="7">
-        <v>15.0</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>23</v>
@@ -1266,10 +1289,10 @@
         <v>28</v>
       </c>
       <c r="O12" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>30</v>
@@ -1281,34 +1304,34 @@
         <v>25</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>1.0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F13" s="6">
-        <v>496260.0</v>
+        <v>497084</v>
       </c>
       <c r="G13" s="7">
-        <v>7654329.0</v>
+        <v>7654324</v>
       </c>
       <c r="H13" s="7">
-        <v>71.0</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>23</v>
@@ -1317,10 +1340,10 @@
         <v>24</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>27</v>
@@ -1329,10 +1352,10 @@
         <v>28</v>
       </c>
       <c r="O13" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>30</v>
@@ -1341,37 +1364,37 @@
         <v>31</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>1.23456789E8</v>
+        <v>123456789</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>2.0</v>
+        <v>9</v>
       </c>
       <c r="E14" s="8">
-        <v>45819.60700231481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F14" s="6">
-        <v>496978.0</v>
+        <v>497084</v>
       </c>
       <c r="G14" s="7">
-        <v>7654321.0</v>
+        <v>7654324</v>
       </c>
       <c r="H14" s="7">
-        <v>11.0</v>
+        <v>15</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>23</v>
@@ -1380,10 +1403,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>27</v>
@@ -1392,10 +1415,10 @@
         <v>28</v>
       </c>
       <c r="O14" s="6">
-        <v>7.4596791E7</v>
+        <v>74596791</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>30</v>
@@ -1404,37 +1427,37 @@
         <v>31</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>1.23445566E8</v>
+        <v>123456789</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>144.0</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8">
-        <v>45819.70887731481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F15" s="6">
-        <v>497285.0</v>
+        <v>497084</v>
       </c>
       <c r="G15" s="7">
-        <v>7654327.0</v>
+        <v>7654324</v>
       </c>
       <c r="H15" s="7">
-        <v>2.0</v>
+        <v>15</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>23</v>
@@ -1446,7 +1469,7 @@
         <v>43</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>27</v>
@@ -1454,14 +1477,14 @@
       <c r="N15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>72</v>
+      <c r="O15" s="6">
+        <v>74596791</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>31</v>
@@ -1470,34 +1493,34 @@
         <v>43</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>1.23445566E8</v>
+        <v>123456789</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>8.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
-        <v>45819.70887731481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F16" s="6">
-        <v>497285.0</v>
+        <v>496260</v>
       </c>
       <c r="G16" s="7">
-        <v>7654327.0</v>
+        <v>7654329</v>
       </c>
       <c r="H16" s="7">
-        <v>3.0</v>
+        <v>71</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
@@ -1506,10 +1529,10 @@
         <v>24</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -1517,50 +1540,50 @@
       <c r="N16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>72</v>
+      <c r="O16" s="6">
+        <v>74596791</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>1.23445566E8</v>
+        <v>123456789</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>8.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="8">
-        <v>45819.70887731481</v>
+        <v>45819.607002314813</v>
       </c>
       <c r="F17" s="6">
-        <v>497285.0</v>
+        <v>496978</v>
       </c>
       <c r="G17" s="7">
-        <v>7654327.0</v>
+        <v>7654321</v>
       </c>
       <c r="H17" s="7">
-        <v>4.0</v>
+        <v>11</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>23</v>
@@ -1572,7 +1595,7 @@
         <v>43</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>27</v>
@@ -1580,14 +1603,14 @@
       <c r="N17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>72</v>
+      <c r="O17" s="6">
+        <v>74596791</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>31</v>
@@ -1596,2966 +1619,3137 @@
         <v>43</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>123445566</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7">
+        <v>144</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45819.708877314813</v>
+      </c>
+      <c r="F18" s="6">
+        <v>497285</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7654327</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>123445566</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>45819.708877314813</v>
+      </c>
+      <c r="F19" s="6">
+        <v>497285</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7654327</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21">
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>123445566</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>45819.708877314813</v>
+      </c>
+      <c r="F20" s="6">
+        <v>497285</v>
+      </c>
+      <c r="G20" s="7">
+        <v>7654327</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="T999" s="2"/>
     </row>
-    <row r="1000">
-      <c r="T1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="T1001" s="2"/>
-    </row>
-    <row r="1002">
-      <c r="T1002" s="2"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/wb sample.xlsx
+++ b/data/wb sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\receiving_shipping_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACC248-DF21-4E33-B448-F59E6A445594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50D34F5-5203-4ABA-976D-1A50E5969944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1140" windowWidth="21600" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="86">
   <si>
     <t>XXEEG_INTERNAL_REQ_SHIPMENT</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>P123.2B.XX.RM.</t>
+  </si>
+  <si>
+    <t>5685D80G02</t>
+  </si>
+  <si>
+    <t>BL TEST PART</t>
+  </si>
+  <si>
+    <t>930,8407</t>
   </si>
 </sst>
 </file>
@@ -596,27 +605,27 @@
   <dimension ref="A1:U999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>123456789</v>
       </c>
@@ -741,7 +750,7 @@
       </c>
       <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>123456789</v>
       </c>
@@ -804,7 +813,7 @@
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>123456789</v>
       </c>
@@ -867,7 +876,7 @@
       </c>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>123456789</v>
       </c>
@@ -930,7 +939,7 @@
       </c>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>123456789</v>
       </c>
@@ -993,7 +1002,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>123456789</v>
       </c>
@@ -1056,7 +1065,7 @@
       </c>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>123456789</v>
       </c>
@@ -1119,7 +1128,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>123456789</v>
       </c>
@@ -1182,7 +1191,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>123456789</v>
       </c>
@@ -1245,7 +1254,7 @@
       </c>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>123456789</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>123456789</v>
       </c>
@@ -1371,7 +1380,7 @@
       </c>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>123456789</v>
       </c>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>123456789</v>
       </c>
@@ -1497,7 +1506,7 @@
       </c>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>123456789</v>
       </c>
@@ -1560,7 +1569,7 @@
       </c>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>123456789</v>
       </c>
@@ -1623,7 +1632,7 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>123445566</v>
       </c>
@@ -1686,7 +1695,7 @@
       </c>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>123445566</v>
       </c>
@@ -1749,7 +1758,7 @@
       </c>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>123445566</v>
       </c>
@@ -1812,2941 +1821,3000 @@
       </c>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>123445566</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8">
+        <v>45819.708877314813</v>
+      </c>
+      <c r="F21" s="6">
+        <v>497285</v>
+      </c>
+      <c r="G21" s="7">
+        <v>7654327</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T89" s="2"/>
     </row>
-    <row r="90" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T90" s="2"/>
     </row>
-    <row r="91" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T91" s="2"/>
     </row>
-    <row r="92" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T92" s="2"/>
     </row>
-    <row r="93" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T93" s="2"/>
     </row>
-    <row r="94" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T94" s="2"/>
     </row>
-    <row r="95" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T95" s="2"/>
     </row>
-    <row r="96" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T96" s="2"/>
     </row>
-    <row r="97" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T97" s="2"/>
     </row>
-    <row r="98" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T98" s="2"/>
     </row>
-    <row r="99" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T99" s="2"/>
     </row>
-    <row r="100" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T100" s="2"/>
     </row>
-    <row r="101" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T101" s="2"/>
     </row>
-    <row r="102" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T102" s="2"/>
     </row>
-    <row r="103" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T103" s="2"/>
     </row>
-    <row r="104" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T104" s="2"/>
     </row>
-    <row r="105" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T105" s="2"/>
     </row>
-    <row r="106" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T106" s="2"/>
     </row>
-    <row r="107" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T107" s="2"/>
     </row>
-    <row r="108" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T108" s="2"/>
     </row>
-    <row r="109" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T109" s="2"/>
     </row>
-    <row r="110" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T110" s="2"/>
     </row>
-    <row r="111" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T111" s="2"/>
     </row>
-    <row r="112" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T512" s="2"/>
     </row>
-    <row r="513" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T513" s="2"/>
     </row>
-    <row r="514" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T514" s="2"/>
     </row>
-    <row r="515" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T515" s="2"/>
     </row>
-    <row r="516" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T516" s="2"/>
     </row>
-    <row r="517" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T517" s="2"/>
     </row>
-    <row r="518" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T518" s="2"/>
     </row>
-    <row r="519" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T519" s="2"/>
     </row>
-    <row r="520" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T520" s="2"/>
     </row>
-    <row r="521" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T521" s="2"/>
     </row>
-    <row r="522" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T522" s="2"/>
     </row>
-    <row r="523" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T523" s="2"/>
     </row>
-    <row r="524" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T524" s="2"/>
     </row>
-    <row r="525" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T525" s="2"/>
     </row>
-    <row r="526" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T526" s="2"/>
     </row>
-    <row r="527" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T527" s="2"/>
     </row>
-    <row r="528" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T528" s="2"/>
     </row>
-    <row r="529" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T529" s="2"/>
     </row>
-    <row r="530" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T530" s="2"/>
     </row>
-    <row r="531" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T531" s="2"/>
     </row>
-    <row r="532" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T532" s="2"/>
     </row>
-    <row r="533" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T533" s="2"/>
     </row>
-    <row r="534" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T534" s="2"/>
     </row>
-    <row r="535" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T535" s="2"/>
     </row>
-    <row r="536" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T536" s="2"/>
     </row>
-    <row r="537" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T537" s="2"/>
     </row>
-    <row r="538" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T538" s="2"/>
     </row>
-    <row r="539" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T539" s="2"/>
     </row>
-    <row r="540" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T540" s="2"/>
     </row>
-    <row r="541" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T541" s="2"/>
     </row>
-    <row r="542" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T542" s="2"/>
     </row>
-    <row r="543" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T543" s="2"/>
     </row>
-    <row r="544" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T544" s="2"/>
     </row>
-    <row r="545" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T545" s="2"/>
     </row>
-    <row r="546" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T546" s="2"/>
     </row>
-    <row r="547" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T547" s="2"/>
     </row>
-    <row r="548" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T548" s="2"/>
     </row>
-    <row r="549" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T549" s="2"/>
     </row>
-    <row r="550" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T550" s="2"/>
     </row>
-    <row r="551" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T551" s="2"/>
     </row>
-    <row r="552" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T552" s="2"/>
     </row>
-    <row r="553" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T553" s="2"/>
     </row>
-    <row r="554" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T554" s="2"/>
     </row>
-    <row r="555" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T555" s="2"/>
     </row>
-    <row r="556" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T556" s="2"/>
     </row>
-    <row r="557" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T557" s="2"/>
     </row>
-    <row r="558" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T558" s="2"/>
     </row>
-    <row r="559" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T559" s="2"/>
     </row>
-    <row r="560" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T560" s="2"/>
     </row>
-    <row r="561" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T561" s="2"/>
     </row>
-    <row r="562" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T562" s="2"/>
     </row>
-    <row r="563" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T563" s="2"/>
     </row>
-    <row r="564" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T564" s="2"/>
     </row>
-    <row r="565" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T565" s="2"/>
     </row>
-    <row r="566" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T566" s="2"/>
     </row>
-    <row r="567" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T567" s="2"/>
     </row>
-    <row r="568" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T568" s="2"/>
     </row>
-    <row r="569" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T569" s="2"/>
     </row>
-    <row r="570" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T570" s="2"/>
     </row>
-    <row r="571" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T571" s="2"/>
     </row>
-    <row r="572" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T572" s="2"/>
     </row>
-    <row r="573" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T573" s="2"/>
     </row>
-    <row r="574" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T574" s="2"/>
     </row>
-    <row r="575" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T575" s="2"/>
     </row>
-    <row r="576" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T576" s="2"/>
     </row>
-    <row r="577" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T577" s="2"/>
     </row>
-    <row r="578" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T578" s="2"/>
     </row>
-    <row r="579" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T579" s="2"/>
     </row>
-    <row r="580" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T580" s="2"/>
     </row>
-    <row r="581" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T581" s="2"/>
     </row>
-    <row r="582" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T582" s="2"/>
     </row>
-    <row r="583" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T583" s="2"/>
     </row>
-    <row r="584" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T584" s="2"/>
     </row>
-    <row r="585" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T585" s="2"/>
     </row>
-    <row r="586" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T586" s="2"/>
     </row>
-    <row r="587" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T587" s="2"/>
     </row>
-    <row r="588" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T588" s="2"/>
     </row>
-    <row r="589" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T589" s="2"/>
     </row>
-    <row r="590" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T590" s="2"/>
     </row>
-    <row r="591" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T591" s="2"/>
     </row>
-    <row r="592" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T592" s="2"/>
     </row>
-    <row r="593" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T593" s="2"/>
     </row>
-    <row r="594" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T594" s="2"/>
     </row>
-    <row r="595" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T595" s="2"/>
     </row>
-    <row r="596" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T596" s="2"/>
     </row>
-    <row r="597" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T597" s="2"/>
     </row>
-    <row r="598" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T598" s="2"/>
     </row>
-    <row r="599" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T599" s="2"/>
     </row>
-    <row r="600" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T600" s="2"/>
     </row>
-    <row r="601" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T601" s="2"/>
     </row>
-    <row r="602" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T602" s="2"/>
     </row>
-    <row r="603" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T603" s="2"/>
     </row>
-    <row r="604" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T604" s="2"/>
     </row>
-    <row r="605" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T605" s="2"/>
     </row>
-    <row r="606" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T606" s="2"/>
     </row>
-    <row r="607" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T607" s="2"/>
     </row>
-    <row r="608" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T608" s="2"/>
     </row>
-    <row r="609" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T609" s="2"/>
     </row>
-    <row r="610" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T610" s="2"/>
     </row>
-    <row r="611" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T611" s="2"/>
     </row>
-    <row r="612" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T612" s="2"/>
     </row>
-    <row r="613" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T613" s="2"/>
     </row>
-    <row r="614" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T614" s="2"/>
     </row>
-    <row r="615" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T615" s="2"/>
     </row>
-    <row r="616" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T616" s="2"/>
     </row>
-    <row r="617" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T617" s="2"/>
     </row>
-    <row r="618" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T618" s="2"/>
     </row>
-    <row r="619" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T619" s="2"/>
     </row>
-    <row r="620" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T620" s="2"/>
     </row>
-    <row r="621" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T621" s="2"/>
     </row>
-    <row r="622" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T622" s="2"/>
     </row>
-    <row r="623" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T623" s="2"/>
     </row>
-    <row r="624" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T624" s="2"/>
     </row>
-    <row r="625" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T625" s="2"/>
     </row>
-    <row r="626" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T626" s="2"/>
     </row>
-    <row r="627" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T627" s="2"/>
     </row>
-    <row r="628" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T628" s="2"/>
     </row>
-    <row r="629" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T629" s="2"/>
     </row>
-    <row r="630" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T630" s="2"/>
     </row>
-    <row r="631" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T631" s="2"/>
     </row>
-    <row r="632" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T632" s="2"/>
     </row>
-    <row r="633" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T633" s="2"/>
     </row>
-    <row r="634" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T634" s="2"/>
     </row>
-    <row r="635" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T635" s="2"/>
     </row>
-    <row r="636" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T636" s="2"/>
     </row>
-    <row r="637" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T637" s="2"/>
     </row>
-    <row r="638" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T638" s="2"/>
     </row>
-    <row r="639" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T639" s="2"/>
     </row>
-    <row r="640" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T640" s="2"/>
     </row>
-    <row r="641" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T641" s="2"/>
     </row>
-    <row r="642" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T642" s="2"/>
     </row>
-    <row r="643" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T643" s="2"/>
     </row>
-    <row r="644" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T644" s="2"/>
     </row>
-    <row r="645" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T645" s="2"/>
     </row>
-    <row r="646" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T646" s="2"/>
     </row>
-    <row r="647" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T647" s="2"/>
     </row>
-    <row r="648" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T648" s="2"/>
     </row>
-    <row r="649" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T649" s="2"/>
     </row>
-    <row r="650" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T650" s="2"/>
     </row>
-    <row r="651" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T651" s="2"/>
     </row>
-    <row r="652" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T652" s="2"/>
     </row>
-    <row r="653" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T653" s="2"/>
     </row>
-    <row r="654" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T654" s="2"/>
     </row>
-    <row r="655" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T655" s="2"/>
     </row>
-    <row r="656" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T656" s="2"/>
     </row>
-    <row r="657" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T657" s="2"/>
     </row>
-    <row r="658" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T658" s="2"/>
     </row>
-    <row r="659" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T659" s="2"/>
     </row>
-    <row r="660" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T660" s="2"/>
     </row>
-    <row r="661" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T661" s="2"/>
     </row>
-    <row r="662" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T662" s="2"/>
     </row>
-    <row r="663" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T663" s="2"/>
     </row>
-    <row r="664" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T664" s="2"/>
     </row>
-    <row r="665" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T665" s="2"/>
     </row>
-    <row r="666" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T666" s="2"/>
     </row>
-    <row r="667" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T667" s="2"/>
     </row>
-    <row r="668" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T668" s="2"/>
     </row>
-    <row r="669" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T669" s="2"/>
     </row>
-    <row r="670" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T670" s="2"/>
     </row>
-    <row r="671" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T671" s="2"/>
     </row>
-    <row r="672" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T672" s="2"/>
     </row>
-    <row r="673" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T673" s="2"/>
     </row>
-    <row r="674" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T674" s="2"/>
     </row>
-    <row r="675" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T675" s="2"/>
     </row>
-    <row r="676" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T676" s="2"/>
     </row>
-    <row r="677" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T677" s="2"/>
     </row>
-    <row r="678" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T678" s="2"/>
     </row>
-    <row r="679" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T679" s="2"/>
     </row>
-    <row r="680" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T680" s="2"/>
     </row>
-    <row r="681" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T681" s="2"/>
     </row>
-    <row r="682" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T682" s="2"/>
     </row>
-    <row r="683" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T683" s="2"/>
     </row>
-    <row r="684" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T684" s="2"/>
     </row>
-    <row r="685" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T685" s="2"/>
     </row>
-    <row r="686" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T686" s="2"/>
     </row>
-    <row r="687" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T687" s="2"/>
     </row>
-    <row r="688" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T688" s="2"/>
     </row>
-    <row r="689" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T689" s="2"/>
     </row>
-    <row r="690" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T690" s="2"/>
     </row>
-    <row r="691" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T691" s="2"/>
     </row>
-    <row r="692" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T692" s="2"/>
     </row>
-    <row r="693" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T693" s="2"/>
     </row>
-    <row r="694" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T694" s="2"/>
     </row>
-    <row r="695" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T695" s="2"/>
     </row>
-    <row r="696" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T696" s="2"/>
     </row>
-    <row r="697" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T697" s="2"/>
     </row>
-    <row r="698" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T698" s="2"/>
     </row>
-    <row r="699" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T699" s="2"/>
     </row>
-    <row r="700" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T700" s="2"/>
     </row>
-    <row r="701" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T701" s="2"/>
     </row>
-    <row r="702" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T702" s="2"/>
     </row>
-    <row r="703" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T703" s="2"/>
     </row>
-    <row r="704" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T704" s="2"/>
     </row>
-    <row r="705" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T705" s="2"/>
     </row>
-    <row r="706" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T706" s="2"/>
     </row>
-    <row r="707" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T707" s="2"/>
     </row>
-    <row r="708" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T708" s="2"/>
     </row>
-    <row r="709" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T709" s="2"/>
     </row>
-    <row r="710" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T710" s="2"/>
     </row>
-    <row r="711" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T711" s="2"/>
     </row>
-    <row r="712" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T712" s="2"/>
     </row>
-    <row r="713" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T713" s="2"/>
     </row>
-    <row r="714" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T714" s="2"/>
     </row>
-    <row r="715" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T715" s="2"/>
     </row>
-    <row r="716" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T716" s="2"/>
     </row>
-    <row r="717" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T717" s="2"/>
     </row>
-    <row r="718" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T718" s="2"/>
     </row>
-    <row r="719" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T719" s="2"/>
     </row>
-    <row r="720" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T720" s="2"/>
     </row>
-    <row r="721" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T721" s="2"/>
     </row>
-    <row r="722" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T722" s="2"/>
     </row>
-    <row r="723" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T723" s="2"/>
     </row>
-    <row r="724" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T724" s="2"/>
     </row>
-    <row r="725" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T725" s="2"/>
     </row>
-    <row r="726" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T726" s="2"/>
     </row>
-    <row r="727" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T727" s="2"/>
     </row>
-    <row r="728" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T728" s="2"/>
     </row>
-    <row r="729" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T729" s="2"/>
     </row>
-    <row r="730" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T730" s="2"/>
     </row>
-    <row r="731" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T731" s="2"/>
     </row>
-    <row r="732" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T732" s="2"/>
     </row>
-    <row r="733" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T733" s="2"/>
     </row>
-    <row r="734" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T734" s="2"/>
     </row>
-    <row r="735" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T735" s="2"/>
     </row>
-    <row r="736" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T736" s="2"/>
     </row>
-    <row r="737" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T737" s="2"/>
     </row>
-    <row r="738" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T738" s="2"/>
     </row>
-    <row r="739" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T739" s="2"/>
     </row>
-    <row r="740" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T740" s="2"/>
     </row>
-    <row r="741" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T741" s="2"/>
     </row>
-    <row r="742" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T742" s="2"/>
     </row>
-    <row r="743" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T743" s="2"/>
     </row>
-    <row r="744" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T744" s="2"/>
     </row>
-    <row r="745" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T745" s="2"/>
     </row>
-    <row r="746" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T746" s="2"/>
     </row>
-    <row r="747" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T747" s="2"/>
     </row>
-    <row r="748" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T748" s="2"/>
     </row>
-    <row r="749" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T749" s="2"/>
     </row>
-    <row r="750" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T750" s="2"/>
     </row>
-    <row r="751" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T751" s="2"/>
     </row>
-    <row r="752" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T752" s="2"/>
     </row>
-    <row r="753" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T753" s="2"/>
     </row>
-    <row r="754" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T754" s="2"/>
     </row>
-    <row r="755" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T755" s="2"/>
     </row>
-    <row r="756" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T756" s="2"/>
     </row>
-    <row r="757" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T757" s="2"/>
     </row>
-    <row r="758" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T758" s="2"/>
     </row>
-    <row r="759" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T759" s="2"/>
     </row>
-    <row r="760" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T760" s="2"/>
     </row>
-    <row r="761" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T761" s="2"/>
     </row>
-    <row r="762" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T762" s="2"/>
     </row>
-    <row r="763" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T763" s="2"/>
     </row>
-    <row r="764" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T764" s="2"/>
     </row>
-    <row r="765" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T765" s="2"/>
     </row>
-    <row r="766" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T766" s="2"/>
     </row>
-    <row r="767" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T767" s="2"/>
     </row>
-    <row r="768" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T768" s="2"/>
     </row>
-    <row r="769" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T769" s="2"/>
     </row>
-    <row r="770" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T770" s="2"/>
     </row>
-    <row r="771" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T771" s="2"/>
     </row>
-    <row r="772" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T772" s="2"/>
     </row>
-    <row r="773" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T773" s="2"/>
     </row>
-    <row r="774" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T774" s="2"/>
     </row>
-    <row r="775" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T775" s="2"/>
     </row>
-    <row r="776" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T776" s="2"/>
     </row>
-    <row r="777" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T777" s="2"/>
     </row>
-    <row r="778" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T778" s="2"/>
     </row>
-    <row r="779" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T779" s="2"/>
     </row>
-    <row r="780" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T780" s="2"/>
     </row>
-    <row r="781" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T781" s="2"/>
     </row>
-    <row r="782" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T782" s="2"/>
     </row>
-    <row r="783" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T783" s="2"/>
     </row>
-    <row r="784" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T784" s="2"/>
     </row>
-    <row r="785" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T785" s="2"/>
     </row>
-    <row r="786" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T786" s="2"/>
     </row>
-    <row r="787" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T787" s="2"/>
     </row>
-    <row r="788" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T788" s="2"/>
     </row>
-    <row r="789" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T789" s="2"/>
     </row>
-    <row r="790" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T790" s="2"/>
     </row>
-    <row r="791" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T791" s="2"/>
     </row>
-    <row r="792" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T792" s="2"/>
     </row>
-    <row r="793" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T793" s="2"/>
     </row>
-    <row r="794" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T794" s="2"/>
     </row>
-    <row r="795" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T795" s="2"/>
     </row>
-    <row r="796" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T796" s="2"/>
     </row>
-    <row r="797" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T797" s="2"/>
     </row>
-    <row r="798" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T798" s="2"/>
     </row>
-    <row r="799" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T799" s="2"/>
     </row>
-    <row r="800" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T800" s="2"/>
     </row>
-    <row r="801" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T801" s="2"/>
     </row>
-    <row r="802" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T802" s="2"/>
     </row>
-    <row r="803" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T803" s="2"/>
     </row>
-    <row r="804" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T804" s="2"/>
     </row>
-    <row r="805" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T805" s="2"/>
     </row>
-    <row r="806" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T806" s="2"/>
     </row>
-    <row r="807" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T807" s="2"/>
     </row>
-    <row r="808" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T808" s="2"/>
     </row>
-    <row r="809" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T809" s="2"/>
     </row>
-    <row r="810" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T810" s="2"/>
     </row>
-    <row r="811" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T811" s="2"/>
     </row>
-    <row r="812" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T812" s="2"/>
     </row>
-    <row r="813" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T813" s="2"/>
     </row>
-    <row r="814" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T814" s="2"/>
     </row>
-    <row r="815" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T815" s="2"/>
     </row>
-    <row r="816" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T816" s="2"/>
     </row>
-    <row r="817" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T817" s="2"/>
     </row>
-    <row r="818" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T818" s="2"/>
     </row>
-    <row r="819" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T819" s="2"/>
     </row>
-    <row r="820" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T820" s="2"/>
     </row>
-    <row r="821" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T821" s="2"/>
     </row>
-    <row r="822" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T822" s="2"/>
     </row>
-    <row r="823" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T823" s="2"/>
     </row>
-    <row r="824" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T824" s="2"/>
     </row>
-    <row r="825" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T825" s="2"/>
     </row>
-    <row r="826" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T826" s="2"/>
     </row>
-    <row r="827" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T827" s="2"/>
     </row>
-    <row r="828" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T828" s="2"/>
     </row>
-    <row r="829" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T829" s="2"/>
     </row>
-    <row r="830" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T830" s="2"/>
     </row>
-    <row r="831" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T831" s="2"/>
     </row>
-    <row r="832" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T832" s="2"/>
     </row>
-    <row r="833" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T833" s="2"/>
     </row>
-    <row r="834" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T834" s="2"/>
     </row>
-    <row r="835" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T835" s="2"/>
     </row>
-    <row r="836" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T836" s="2"/>
     </row>
-    <row r="837" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T837" s="2"/>
     </row>
-    <row r="838" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T838" s="2"/>
     </row>
-    <row r="839" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T839" s="2"/>
     </row>
-    <row r="840" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T840" s="2"/>
     </row>
-    <row r="841" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T841" s="2"/>
     </row>
-    <row r="842" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T842" s="2"/>
     </row>
-    <row r="843" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T843" s="2"/>
     </row>
-    <row r="844" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T844" s="2"/>
     </row>
-    <row r="845" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T845" s="2"/>
     </row>
-    <row r="846" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T846" s="2"/>
     </row>
-    <row r="847" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T847" s="2"/>
     </row>
-    <row r="848" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T848" s="2"/>
     </row>
-    <row r="849" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T849" s="2"/>
     </row>
-    <row r="850" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T850" s="2"/>
     </row>
-    <row r="851" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T851" s="2"/>
     </row>
-    <row r="852" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T852" s="2"/>
     </row>
-    <row r="853" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T853" s="2"/>
     </row>
-    <row r="854" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T854" s="2"/>
     </row>
-    <row r="855" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T855" s="2"/>
     </row>
-    <row r="856" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T856" s="2"/>
     </row>
-    <row r="857" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T857" s="2"/>
     </row>
-    <row r="858" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T858" s="2"/>
     </row>
-    <row r="859" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T859" s="2"/>
     </row>
-    <row r="860" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T860" s="2"/>
     </row>
-    <row r="861" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T861" s="2"/>
     </row>
-    <row r="862" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T862" s="2"/>
     </row>
-    <row r="863" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T863" s="2"/>
     </row>
-    <row r="864" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T864" s="2"/>
     </row>
-    <row r="865" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T865" s="2"/>
     </row>
-    <row r="866" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T866" s="2"/>
     </row>
-    <row r="867" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T867" s="2"/>
     </row>
-    <row r="868" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T868" s="2"/>
     </row>
-    <row r="869" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T869" s="2"/>
     </row>
-    <row r="870" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T870" s="2"/>
     </row>
-    <row r="871" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T871" s="2"/>
     </row>
-    <row r="872" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T872" s="2"/>
     </row>
-    <row r="873" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T873" s="2"/>
     </row>
-    <row r="874" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T874" s="2"/>
     </row>
-    <row r="875" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T875" s="2"/>
     </row>
-    <row r="876" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T876" s="2"/>
     </row>
-    <row r="877" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T877" s="2"/>
     </row>
-    <row r="878" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T878" s="2"/>
     </row>
-    <row r="879" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T879" s="2"/>
     </row>
-    <row r="880" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T880" s="2"/>
     </row>
-    <row r="881" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T881" s="2"/>
     </row>
-    <row r="882" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T882" s="2"/>
     </row>
-    <row r="883" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T883" s="2"/>
     </row>
-    <row r="884" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T884" s="2"/>
     </row>
-    <row r="885" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T885" s="2"/>
     </row>
-    <row r="886" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T886" s="2"/>
     </row>
-    <row r="887" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T887" s="2"/>
     </row>
-    <row r="888" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T888" s="2"/>
     </row>
-    <row r="889" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T889" s="2"/>
     </row>
-    <row r="890" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T890" s="2"/>
     </row>
-    <row r="891" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T891" s="2"/>
     </row>
-    <row r="892" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T892" s="2"/>
     </row>
-    <row r="893" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T893" s="2"/>
     </row>
-    <row r="894" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T894" s="2"/>
     </row>
-    <row r="895" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T895" s="2"/>
     </row>
-    <row r="896" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T896" s="2"/>
     </row>
-    <row r="897" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T897" s="2"/>
     </row>
-    <row r="898" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T898" s="2"/>
     </row>
-    <row r="899" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T899" s="2"/>
     </row>
-    <row r="900" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T900" s="2"/>
     </row>
-    <row r="901" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T901" s="2"/>
     </row>
-    <row r="902" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T902" s="2"/>
     </row>
-    <row r="903" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T903" s="2"/>
     </row>
-    <row r="904" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T904" s="2"/>
     </row>
-    <row r="905" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T905" s="2"/>
     </row>
-    <row r="906" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T906" s="2"/>
     </row>
-    <row r="907" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T907" s="2"/>
     </row>
-    <row r="908" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T908" s="2"/>
     </row>
-    <row r="909" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T909" s="2"/>
     </row>
-    <row r="910" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T910" s="2"/>
     </row>
-    <row r="911" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T911" s="2"/>
     </row>
-    <row r="912" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T912" s="2"/>
     </row>
-    <row r="913" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T913" s="2"/>
     </row>
-    <row r="914" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T914" s="2"/>
     </row>
-    <row r="915" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T915" s="2"/>
     </row>
-    <row r="916" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T916" s="2"/>
     </row>
-    <row r="917" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T917" s="2"/>
     </row>
-    <row r="918" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T918" s="2"/>
     </row>
-    <row r="919" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T919" s="2"/>
     </row>
-    <row r="920" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T920" s="2"/>
     </row>
-    <row r="921" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T921" s="2"/>
     </row>
-    <row r="922" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T922" s="2"/>
     </row>
-    <row r="923" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T923" s="2"/>
     </row>
-    <row r="924" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T924" s="2"/>
     </row>
-    <row r="925" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T925" s="2"/>
     </row>
-    <row r="926" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T926" s="2"/>
     </row>
-    <row r="927" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T927" s="2"/>
     </row>
-    <row r="928" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T928" s="2"/>
     </row>
-    <row r="929" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T929" s="2"/>
     </row>
-    <row r="930" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T930" s="2"/>
     </row>
-    <row r="931" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T931" s="2"/>
     </row>
-    <row r="932" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T932" s="2"/>
     </row>
-    <row r="933" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T933" s="2"/>
     </row>
-    <row r="934" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T934" s="2"/>
     </row>
-    <row r="935" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T935" s="2"/>
     </row>
-    <row r="936" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T936" s="2"/>
     </row>
-    <row r="937" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T937" s="2"/>
     </row>
-    <row r="938" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T938" s="2"/>
     </row>
-    <row r="939" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T939" s="2"/>
     </row>
-    <row r="940" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T940" s="2"/>
     </row>
-    <row r="941" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T941" s="2"/>
     </row>
-    <row r="942" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T942" s="2"/>
     </row>
-    <row r="943" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T943" s="2"/>
     </row>
-    <row r="944" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T944" s="2"/>
     </row>
-    <row r="945" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T945" s="2"/>
     </row>
-    <row r="946" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T946" s="2"/>
     </row>
-    <row r="947" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T947" s="2"/>
     </row>
-    <row r="948" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T948" s="2"/>
     </row>
-    <row r="949" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T949" s="2"/>
     </row>
-    <row r="950" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T950" s="2"/>
     </row>
-    <row r="951" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T951" s="2"/>
     </row>
-    <row r="952" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T952" s="2"/>
     </row>
-    <row r="953" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T953" s="2"/>
     </row>
-    <row r="954" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T954" s="2"/>
     </row>
-    <row r="955" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T955" s="2"/>
     </row>
-    <row r="956" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T956" s="2"/>
     </row>
-    <row r="957" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T957" s="2"/>
     </row>
-    <row r="958" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T958" s="2"/>
     </row>
-    <row r="959" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T959" s="2"/>
     </row>
-    <row r="960" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T960" s="2"/>
     </row>
-    <row r="961" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T961" s="2"/>
     </row>
-    <row r="962" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T962" s="2"/>
     </row>
-    <row r="963" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T963" s="2"/>
     </row>
-    <row r="964" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T964" s="2"/>
     </row>
-    <row r="965" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T965" s="2"/>
     </row>
-    <row r="966" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T966" s="2"/>
     </row>
-    <row r="967" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T967" s="2"/>
     </row>
-    <row r="968" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T968" s="2"/>
     </row>
-    <row r="969" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T969" s="2"/>
     </row>
-    <row r="970" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T970" s="2"/>
     </row>
-    <row r="971" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T971" s="2"/>
     </row>
-    <row r="972" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T972" s="2"/>
     </row>
-    <row r="973" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T973" s="2"/>
     </row>
-    <row r="974" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T974" s="2"/>
     </row>
-    <row r="975" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T975" s="2"/>
     </row>
-    <row r="976" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T976" s="2"/>
     </row>
-    <row r="977" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T977" s="2"/>
     </row>
-    <row r="978" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T978" s="2"/>
     </row>
-    <row r="979" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T979" s="2"/>
     </row>
-    <row r="980" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T980" s="2"/>
     </row>
-    <row r="981" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T981" s="2"/>
     </row>
-    <row r="982" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T982" s="2"/>
     </row>
-    <row r="983" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T983" s="2"/>
     </row>
-    <row r="984" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T984" s="2"/>
     </row>
-    <row r="985" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T985" s="2"/>
     </row>
-    <row r="986" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T986" s="2"/>
     </row>
-    <row r="987" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T987" s="2"/>
     </row>
-    <row r="988" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T988" s="2"/>
     </row>
-    <row r="989" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T989" s="2"/>
     </row>
-    <row r="990" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T990" s="2"/>
     </row>
-    <row r="991" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T991" s="2"/>
     </row>
-    <row r="992" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T992" s="2"/>
     </row>
-    <row r="993" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T993" s="2"/>
     </row>
-    <row r="994" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T994" s="2"/>
     </row>
-    <row r="995" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T995" s="2"/>
     </row>
-    <row r="996" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T996" s="2"/>
     </row>
-    <row r="997" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T997" s="2"/>
     </row>
-    <row r="998" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T998" s="2"/>
     </row>
-    <row r="999" spans="20:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="20:20" ht="12.5" x14ac:dyDescent="0.25">
       <c r="T999" s="2"/>
     </row>
   </sheetData>
